--- a/text_generator/templates.xlsx
+++ b/text_generator/templates.xlsx
@@ -24,37 +24,37 @@
     <t>target</t>
   </si>
   <si>
-    <t>Я проживаю за адресою: ?adress.</t>
+    <t>Я проживаю за адресою: ?address.</t>
   </si>
   <si>
-    <t>loc ?adress</t>
+    <t>loc ?address</t>
   </si>
   <si>
-    <t>Адреса ресторану: ?adress.</t>
+    <t>Адреса ресторану: ?address.</t>
   </si>
   <si>
-    <t>Звертатися на адресу: ?adress.</t>
+    <t>Звертатися на адресу: ?address.</t>
   </si>
   <si>
-    <t>Листи надсилайте на адресу: ?adress.</t>
+    <t>Листи надсилайте на адресу: ?address.</t>
   </si>
   <si>
-    <t>Ви не знаєте де знаходиться ?adress?</t>
+    <t>Ви не знаєте де знаходиться ?address?</t>
   </si>
   <si>
-    <t>Ця будівля знаходиться за адресою: ?adress.</t>
+    <t>Ця будівля знаходиться за адресою: ?address.</t>
   </si>
   <si>
-    <t>Мої батьки живуть за адресою: ?adress.</t>
+    <t>Мої батьки живуть за адресою: ?address.</t>
   </si>
   <si>
-    <t>Наш готель знаходиться за адресою: ?adress.</t>
+    <t>Наш готель знаходиться за адресою: ?address.</t>
   </si>
   <si>
-    <t>Моє місце прописки: ?adress.</t>
+    <t>Моє місце прописки: ?address.</t>
   </si>
   <si>
-    <t>Адреси ?adress більше не існує.</t>
+    <t>Адреси ?address більше не існує.</t>
   </si>
 </sst>
 </file>
